--- a/P0055/09_FICHAS/N3-FD-General.xlsx
+++ b/P0055/09_FICHAS/N3-FD-General.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0055\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B43189-37CA-4C48-953F-70DE0EF89161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{92B43189-37CA-4C48-953F-70DE0EF89161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4771DAF-9472-4781-A6F1-D7122803632E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -75,23 +86,19 @@
     <t>PALABRAS CLAVE</t>
   </si>
   <si>
+    <t>P0055</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>R0001</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>P0055</t>
-  </si>
-  <si>
-    <t>PR0001</t>
-  </si>
-  <si>
     <t>monitoreo_peces_rio_cauca_2010_2020</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0055/02_PRODUCTOS/monitoreo_peces_rio_cauca_2010_2020.csv_x000D_
-monitoreo_peces_rio_cauca_2010_2020.csvmonitoreo_peces_rio_cauca_2010_2020.csv</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0055/02_PRODUCTOS/monitoreo_peces_rio_cauca_2010_2020.csv</t>
   </si>
   <si>
     <t>Base de datos que contiene registros del monitoreo de peces del río Cauca realizado entre los años 2010 y 2020.</t>
@@ -103,20 +110,17 @@
     <t>csv</t>
   </si>
   <si>
-    <t>DESCONOCIDO</t>
-  </si>
-  <si>
     <t>Base de datos con información faltante para algunos campos.</t>
   </si>
   <si>
-    <t>Biodiversidad, Peces, Monitoreo, Hábitat, Taxonomía, Cuenca del río Cauca, Ciénagas, Especies, Ictiofauna, Ciénaga Ciritongo, Ciénaga Corrales, Ciénaga Culebras, Ciénaga El Floral, Ciénaga El Sapo, Ciénaga Granada, Ciénaga Hoyo Grande, Ciénaga La Raya, Ciénaga Las Culebras, Ciénaga Nueva, Río Cauca, Río Nechí</t>
+    <t>Biodiversidad, peces, monitoreo, hábitat, taxonomía, cuenca del río Cauca, ciénagas, species, ictiofauna, ciénaga Ciritongo, ciénaga Corrales, ciénaga Culebras, ciénaga El Floral, ciénaga El Sapo, ciénaga Granada, ciénaga Hoyo Grande, ciénaga La Raya, ciénaga Las Culebras, ciénaga Nueva, río Cauca, río Nechí</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,10 +164,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,15 +450,12 @@
   <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,21 +505,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F2" s="1">
         <v>2020</v>
@@ -528,13 +528,13 @@
         <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>17</v>
@@ -546,16 +546,16 @@
         <v>17</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -573,7 +573,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -591,7 +591,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -609,7 +609,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -627,7 +627,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -645,7 +645,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -663,7 +663,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -681,7 +681,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -699,7 +699,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -717,7 +717,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -735,7 +735,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -753,7 +753,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -771,7 +771,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -789,7 +789,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -807,7 +807,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -825,7 +825,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -843,7 +843,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -861,7 +861,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -879,7 +879,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -897,7 +897,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -915,7 +915,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -933,7 +933,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -951,7 +951,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -969,7 +969,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -987,7 +987,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1005,7 +1005,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1023,7 +1023,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1041,7 +1041,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1059,7 +1059,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1077,7 +1077,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1095,7 +1095,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1113,7 +1113,7 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1131,7 +1131,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1149,7 +1149,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1167,7 +1167,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1185,7 +1185,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1203,7 +1203,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1221,7 +1221,7 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1239,7 +1239,7 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1257,7 +1257,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1275,7 +1275,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1293,7 +1293,7 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1311,7 +1311,7 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1329,7 +1329,7 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1347,7 +1347,7 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1365,7 +1365,7 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1383,7 +1383,7 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1401,7 +1401,7 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1419,7 +1419,7 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1437,7 +1437,7 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1455,7 +1455,7 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1473,7 +1473,7 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1491,7 +1491,7 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1509,7 +1509,7 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1527,7 +1527,7 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1545,7 +1545,7 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1563,7 +1563,7 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1581,7 +1581,7 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1599,7 +1599,7 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1617,7 +1617,7 @@
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1635,7 +1635,7 @@
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1653,7 +1653,7 @@
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1671,7 +1671,7 @@
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1689,7 +1689,7 @@
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1707,7 +1707,7 @@
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1725,7 +1725,7 @@
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1743,7 +1743,7 @@
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1761,7 +1761,7 @@
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1779,7 +1779,7 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
